--- a/natmiOut/OldD4/LR-pairs_lrc2p/Col1a1-Ddr1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Col1a1-Ddr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,12 +95,6 @@
   </si>
   <si>
     <t>Ddr1</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.8875026209887</v>
+        <v>15.36533633333333</v>
       </c>
       <c r="H2">
-        <v>6.8875026209887</v>
+        <v>46.096009</v>
       </c>
       <c r="I2">
-        <v>0.002895629900217423</v>
+        <v>0.005906911296689244</v>
       </c>
       <c r="J2">
-        <v>0.002895629900217423</v>
+        <v>0.005956412980416435</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.289786134628029</v>
+        <v>0.357733</v>
       </c>
       <c r="N2">
-        <v>0.289786134628029</v>
+        <v>1.073199</v>
       </c>
       <c r="O2">
-        <v>0.03088713013362999</v>
+        <v>0.03603418328298074</v>
       </c>
       <c r="P2">
-        <v>0.03088713013362999</v>
+        <v>0.04555337018213343</v>
       </c>
       <c r="Q2">
-        <v>1.995902761776734</v>
+        <v>5.496687862532334</v>
       </c>
       <c r="R2">
-        <v>1.995902761776734</v>
+        <v>49.47019076279101</v>
       </c>
       <c r="S2">
-        <v>8.943769754684557E-05</v>
+        <v>0.0002128507243012097</v>
       </c>
       <c r="T2">
-        <v>8.943769754684557E-05</v>
+        <v>0.0002713346854545745</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.8875026209887</v>
+        <v>15.36533633333333</v>
       </c>
       <c r="H3">
-        <v>6.8875026209887</v>
+        <v>46.096009</v>
       </c>
       <c r="I3">
-        <v>0.002895629900217423</v>
+        <v>0.005906911296689244</v>
       </c>
       <c r="J3">
-        <v>0.002895629900217423</v>
+        <v>0.005956412980416435</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.31758544027849</v>
+        <v>2.569221333333333</v>
       </c>
       <c r="N3">
-        <v>2.31758544027849</v>
+        <v>7.707663999999999</v>
       </c>
       <c r="O3">
-        <v>0.2470220432788232</v>
+        <v>0.2587957846211489</v>
       </c>
       <c r="P3">
-        <v>0.2470220432788232</v>
+        <v>0.3271621306314144</v>
       </c>
       <c r="Q3">
-        <v>15.96237579428335</v>
+        <v>39.47694990144178</v>
       </c>
       <c r="R3">
-        <v>15.96237579428335</v>
+        <v>355.292549112976</v>
       </c>
       <c r="S3">
-        <v>0.0007152844145309628</v>
+        <v>0.001528683743714221</v>
       </c>
       <c r="T3">
-        <v>0.0007152844145309628</v>
+        <v>0.001948712761593654</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.8875026209887</v>
+        <v>15.36533633333333</v>
       </c>
       <c r="H4">
-        <v>6.8875026209887</v>
+        <v>46.096009</v>
       </c>
       <c r="I4">
-        <v>0.002895629900217423</v>
+        <v>0.005906911296689244</v>
       </c>
       <c r="J4">
-        <v>0.002895629900217423</v>
+        <v>0.005956412980416435</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.34145594673153</v>
+        <v>0.5272676666666666</v>
       </c>
       <c r="N4">
-        <v>0.34145594673153</v>
+        <v>1.581803</v>
       </c>
       <c r="O4">
-        <v>0.03639440608549564</v>
+        <v>0.05311128618230987</v>
       </c>
       <c r="P4">
-        <v>0.03639440608549564</v>
+        <v>0.06714174874763133</v>
       </c>
       <c r="Q4">
-        <v>2.351778728065591</v>
+        <v>8.101645036025221</v>
       </c>
       <c r="R4">
-        <v>2.351778728065591</v>
+        <v>72.91480532422699</v>
       </c>
       <c r="S4">
-        <v>0.0001053847304618161</v>
+        <v>0.0003137236563319815</v>
       </c>
       <c r="T4">
-        <v>0.0001053847304618161</v>
+        <v>0.0003999239837682502</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.8875026209887</v>
+        <v>15.36533633333333</v>
       </c>
       <c r="H5">
-        <v>6.8875026209887</v>
+        <v>46.096009</v>
       </c>
       <c r="I5">
-        <v>0.002895629900217423</v>
+        <v>0.005906911296689244</v>
       </c>
       <c r="J5">
-        <v>0.002895629900217423</v>
+        <v>0.005956412980416435</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.242595246646381</v>
+        <v>0.2497326666666667</v>
       </c>
       <c r="N5">
-        <v>0.242595246646381</v>
+        <v>0.749198</v>
       </c>
       <c r="O5">
-        <v>0.025857244559285</v>
+        <v>0.02515538874639522</v>
       </c>
       <c r="P5">
-        <v>0.025857244559285</v>
+        <v>0.03180071341262338</v>
       </c>
       <c r="Q5">
-        <v>1.670875397116349</v>
+        <v>3.837226416753556</v>
       </c>
       <c r="R5">
-        <v>1.670875397116349</v>
+        <v>34.535037750782</v>
       </c>
       <c r="S5">
-        <v>7.487301048309993E-05</v>
+        <v>0.0001485906499586914</v>
       </c>
       <c r="T5">
-        <v>7.487301048309993E-05</v>
+        <v>0.0001894181821574529</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>6.8875026209887</v>
+        <v>15.36533633333333</v>
       </c>
       <c r="H6">
-        <v>6.8875026209887</v>
+        <v>46.096009</v>
       </c>
       <c r="I6">
-        <v>0.002895629900217423</v>
+        <v>0.005906911296689244</v>
       </c>
       <c r="J6">
-        <v>0.002895629900217423</v>
+        <v>0.005956412980416435</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.19067694037413</v>
+        <v>6.2236465</v>
       </c>
       <c r="N6">
-        <v>6.19067694037413</v>
+        <v>12.447293</v>
       </c>
       <c r="O6">
-        <v>0.6598391759427661</v>
+        <v>0.6269033571671654</v>
       </c>
       <c r="P6">
-        <v>0.6598391759427661</v>
+        <v>0.5283420370261975</v>
       </c>
       <c r="Q6">
-        <v>42.63830365252113</v>
+        <v>95.62842169227284</v>
       </c>
       <c r="R6">
-        <v>42.63830365252113</v>
+        <v>573.7705301536371</v>
       </c>
       <c r="S6">
-        <v>0.001910650047194698</v>
+        <v>0.003703062522383142</v>
       </c>
       <c r="T6">
-        <v>0.001910650047194698</v>
+        <v>0.003147023367442504</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2310.19956376667</v>
+        <v>2518.056722</v>
       </c>
       <c r="H7">
-        <v>2310.19956376667</v>
+        <v>7554.170166</v>
       </c>
       <c r="I7">
-        <v>0.9712494209333227</v>
+        <v>0.9680190120289646</v>
       </c>
       <c r="J7">
-        <v>0.9712494209333227</v>
+        <v>0.9761313009340347</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.289786134628029</v>
+        <v>0.357733</v>
       </c>
       <c r="N7">
-        <v>0.289786134628029</v>
+        <v>1.073199</v>
       </c>
       <c r="O7">
-        <v>0.03088713013362999</v>
+        <v>0.03603418328298074</v>
       </c>
       <c r="P7">
-        <v>0.03088713013362999</v>
+        <v>0.04555337018213343</v>
       </c>
       <c r="Q7">
-        <v>669.4638018033021</v>
+        <v>900.791985331226</v>
       </c>
       <c r="R7">
-        <v>669.4638018033021</v>
+        <v>8107.127867981034</v>
       </c>
       <c r="S7">
-        <v>0.02999910725658031</v>
+        <v>0.03488177450086165</v>
       </c>
       <c r="T7">
-        <v>0.02999910725658031</v>
+        <v>0.04446607049781557</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2310.19956376667</v>
+        <v>2518.056722</v>
       </c>
       <c r="H8">
-        <v>2310.19956376667</v>
+        <v>7554.170166</v>
       </c>
       <c r="I8">
-        <v>0.9712494209333227</v>
+        <v>0.9680190120289646</v>
       </c>
       <c r="J8">
-        <v>0.9712494209333227</v>
+        <v>0.9761313009340347</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.31758544027849</v>
+        <v>2.569221333333333</v>
       </c>
       <c r="N8">
-        <v>2.31758544027849</v>
+        <v>7.707663999999999</v>
       </c>
       <c r="O8">
-        <v>0.2470220432788232</v>
+        <v>0.2587957846211489</v>
       </c>
       <c r="P8">
-        <v>0.2470220432788232</v>
+        <v>0.3271621306314144</v>
       </c>
       <c r="Q8">
-        <v>5354.084873123354</v>
+        <v>6469.445048705802</v>
       </c>
       <c r="R8">
-        <v>5354.084873123354</v>
+        <v>58225.00543835222</v>
       </c>
       <c r="S8">
-        <v>0.2399200164923232</v>
+        <v>0.2505192397462253</v>
       </c>
       <c r="T8">
-        <v>0.2399200164923232</v>
+        <v>0.3193531961895931</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2310.19956376667</v>
+        <v>2518.056722</v>
       </c>
       <c r="H9">
-        <v>2310.19956376667</v>
+        <v>7554.170166</v>
       </c>
       <c r="I9">
-        <v>0.9712494209333227</v>
+        <v>0.9680190120289646</v>
       </c>
       <c r="J9">
-        <v>0.9712494209333227</v>
+        <v>0.9761313009340347</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.34145594673153</v>
+        <v>0.5272676666666666</v>
       </c>
       <c r="N9">
-        <v>0.34145594673153</v>
+        <v>1.581803</v>
       </c>
       <c r="O9">
-        <v>0.03639440608549564</v>
+        <v>0.05311128618230987</v>
       </c>
       <c r="P9">
-        <v>0.03639440608549564</v>
+        <v>0.06714174874763133</v>
       </c>
       <c r="Q9">
-        <v>788.831379184716</v>
+        <v>1327.689892343255</v>
       </c>
       <c r="R9">
-        <v>788.831379184716</v>
+        <v>11949.2090310893</v>
       </c>
       <c r="S9">
-        <v>0.03534804583574984</v>
+        <v>0.0514127347777872</v>
       </c>
       <c r="T9">
-        <v>0.03534804583574984</v>
+        <v>0.06553916255201146</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2310.19956376667</v>
+        <v>2518.056722</v>
       </c>
       <c r="H10">
-        <v>2310.19956376667</v>
+        <v>7554.170166</v>
       </c>
       <c r="I10">
-        <v>0.9712494209333227</v>
+        <v>0.9680190120289646</v>
       </c>
       <c r="J10">
-        <v>0.9712494209333227</v>
+        <v>0.9761313009340347</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.242595246646381</v>
+        <v>0.2497326666666667</v>
       </c>
       <c r="N10">
-        <v>0.242595246646381</v>
+        <v>0.749198</v>
       </c>
       <c r="O10">
-        <v>0.025857244559285</v>
+        <v>0.02515538874639522</v>
       </c>
       <c r="P10">
-        <v>0.025857244559285</v>
+        <v>0.03180071341262338</v>
       </c>
       <c r="Q10">
-        <v>560.443432974337</v>
+        <v>628.8410200029854</v>
       </c>
       <c r="R10">
-        <v>560.443432974337</v>
+        <v>5659.569180026868</v>
       </c>
       <c r="S10">
-        <v>0.02511383380513687</v>
+        <v>0.02435089456149004</v>
       </c>
       <c r="T10">
-        <v>0.02511383380513687</v>
+        <v>0.03104167175409447</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2310.19956376667</v>
+        <v>2518.056722</v>
       </c>
       <c r="H11">
-        <v>2310.19956376667</v>
+        <v>7554.170166</v>
       </c>
       <c r="I11">
-        <v>0.9712494209333227</v>
+        <v>0.9680190120289646</v>
       </c>
       <c r="J11">
-        <v>0.9712494209333227</v>
+        <v>0.9761313009340347</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>6.19067694037413</v>
+        <v>6.2236465</v>
       </c>
       <c r="N11">
-        <v>6.19067694037413</v>
+        <v>12.447293</v>
       </c>
       <c r="O11">
-        <v>0.6598391759427661</v>
+        <v>0.6269033571671654</v>
       </c>
       <c r="P11">
-        <v>0.6598391759427661</v>
+        <v>0.5283420370261975</v>
       </c>
       <c r="Q11">
-        <v>14301.6991670727</v>
+        <v>15671.49490467677</v>
       </c>
       <c r="R11">
-        <v>14301.6991670727</v>
+        <v>94028.96942806063</v>
       </c>
       <c r="S11">
-        <v>0.6408684175435324</v>
+        <v>0.6068543684426005</v>
       </c>
       <c r="T11">
-        <v>0.6408684175435324</v>
+        <v>0.5157311999405201</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>61.49820118108</v>
+        <v>1.521120333333333</v>
       </c>
       <c r="H12">
-        <v>61.49820118108</v>
+        <v>4.563361</v>
       </c>
       <c r="I12">
-        <v>0.02585494916645983</v>
+        <v>0.000584765779652879</v>
       </c>
       <c r="J12">
-        <v>0.02585494916645983</v>
+        <v>0.0005896662918198867</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.289786134628029</v>
+        <v>0.357733</v>
       </c>
       <c r="N12">
-        <v>0.289786134628029</v>
+        <v>1.073199</v>
       </c>
       <c r="O12">
-        <v>0.03088713013362999</v>
+        <v>0.03603418328298074</v>
       </c>
       <c r="P12">
-        <v>0.03088713013362999</v>
+        <v>0.04555337018213343</v>
       </c>
       <c r="Q12">
-        <v>17.82132600684206</v>
+        <v>0.5441549402043334</v>
       </c>
       <c r="R12">
-        <v>17.82132600684206</v>
+        <v>4.897394461839</v>
       </c>
       <c r="S12">
-        <v>0.0007985851795028329</v>
+        <v>2.107155728162697E-05</v>
       </c>
       <c r="T12">
-        <v>0.0007985851795028329</v>
+        <v>2.686128687519721E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>61.49820118108</v>
+        <v>1.521120333333333</v>
       </c>
       <c r="H13">
-        <v>61.49820118108</v>
+        <v>4.563361</v>
       </c>
       <c r="I13">
-        <v>0.02585494916645983</v>
+        <v>0.000584765779652879</v>
       </c>
       <c r="J13">
-        <v>0.02585494916645983</v>
+        <v>0.0005896662918198867</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.31758544027849</v>
+        <v>2.569221333333333</v>
       </c>
       <c r="N13">
-        <v>2.31758544027849</v>
+        <v>7.707663999999999</v>
       </c>
       <c r="O13">
-        <v>0.2470220432788232</v>
+        <v>0.2587957846211489</v>
       </c>
       <c r="P13">
-        <v>0.2470220432788232</v>
+        <v>0.3271621306314144</v>
       </c>
       <c r="Q13">
-        <v>142.5273356605884</v>
+        <v>3.908094810967111</v>
       </c>
       <c r="R13">
-        <v>142.5273356605884</v>
+        <v>35.172853298704</v>
       </c>
       <c r="S13">
-        <v>0.006386742371969015</v>
+        <v>0.0001513349187648647</v>
       </c>
       <c r="T13">
-        <v>0.006386742371969015</v>
+        <v>0.0001929164803933195</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>61.49820118108</v>
+        <v>1.521120333333333</v>
       </c>
       <c r="H14">
-        <v>61.49820118108</v>
+        <v>4.563361</v>
       </c>
       <c r="I14">
-        <v>0.02585494916645983</v>
+        <v>0.000584765779652879</v>
       </c>
       <c r="J14">
-        <v>0.02585494916645983</v>
+        <v>0.0005896662918198867</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.34145594673153</v>
+        <v>0.5272676666666666</v>
       </c>
       <c r="N14">
-        <v>0.34145594673153</v>
+        <v>1.581803</v>
       </c>
       <c r="O14">
-        <v>0.03639440608549564</v>
+        <v>0.05311128618230987</v>
       </c>
       <c r="P14">
-        <v>0.03639440608549564</v>
+        <v>0.06714174874763133</v>
       </c>
       <c r="Q14">
-        <v>20.99892650657177</v>
+        <v>0.8020375688758888</v>
       </c>
       <c r="R14">
-        <v>20.99892650657177</v>
+        <v>7.218338119883</v>
       </c>
       <c r="S14">
-        <v>0.0009409755192839862</v>
+        <v>3.105766267276561E-05</v>
       </c>
       <c r="T14">
-        <v>0.0009409755192839862</v>
+        <v>3.959122601031829E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>26</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>61.49820118108</v>
+        <v>1.521120333333333</v>
       </c>
       <c r="H15">
-        <v>61.49820118108</v>
+        <v>4.563361</v>
       </c>
       <c r="I15">
-        <v>0.02585494916645983</v>
+        <v>0.000584765779652879</v>
       </c>
       <c r="J15">
-        <v>0.02585494916645983</v>
+        <v>0.0005896662918198867</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.242595246646381</v>
+        <v>0.2497326666666667</v>
       </c>
       <c r="N15">
-        <v>0.242595246646381</v>
+        <v>0.749198</v>
       </c>
       <c r="O15">
-        <v>0.025857244559285</v>
+        <v>0.02515538874639522</v>
       </c>
       <c r="P15">
-        <v>0.025857244559285</v>
+        <v>0.03180071341262338</v>
       </c>
       <c r="Q15">
-        <v>14.91917128383286</v>
+        <v>0.3798734371642223</v>
       </c>
       <c r="R15">
-        <v>14.91917128383286</v>
+        <v>3.418860934478</v>
       </c>
       <c r="S15">
-        <v>0.0006685377436650337</v>
+        <v>1.471001051275706E-05</v>
       </c>
       <c r="T15">
-        <v>0.0006685377436650337</v>
+        <v>1.875180875524856E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,681 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>1.521120333333333</v>
+      </c>
+      <c r="H16">
+        <v>4.563361</v>
+      </c>
+      <c r="I16">
+        <v>0.000584765779652879</v>
+      </c>
+      <c r="J16">
+        <v>0.0005896662918198867</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>6.2236465</v>
+      </c>
+      <c r="N16">
+        <v>12.447293</v>
+      </c>
+      <c r="O16">
+        <v>0.6269033571671654</v>
+      </c>
+      <c r="P16">
+        <v>0.5283420370261975</v>
+      </c>
+      <c r="Q16">
+        <v>9.466915238628834</v>
+      </c>
+      <c r="R16">
+        <v>56.80149143177301</v>
+      </c>
+      <c r="S16">
+        <v>0.0003665916304208647</v>
+      </c>
+      <c r="T16">
+        <v>0.0003115454897858032</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>1.449807</v>
+      </c>
+      <c r="H17">
+        <v>4.349421</v>
+      </c>
+      <c r="I17">
+        <v>0.00055735072506944</v>
+      </c>
+      <c r="J17">
+        <v>0.0005620214908777858</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.357733</v>
+      </c>
+      <c r="N17">
+        <v>1.073199</v>
+      </c>
+      <c r="O17">
+        <v>0.03603418328298074</v>
+      </c>
+      <c r="P17">
+        <v>0.04555337018213343</v>
+      </c>
+      <c r="Q17">
+        <v>0.518643807531</v>
+      </c>
+      <c r="R17">
+        <v>4.667794267779001</v>
+      </c>
+      <c r="S17">
+        <v>2.008367818005441E-05</v>
+      </c>
+      <c r="T17">
+        <v>2.56019730242703E-05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>1.449807</v>
+      </c>
+      <c r="H18">
+        <v>4.349421</v>
+      </c>
+      <c r="I18">
+        <v>0.00055735072506944</v>
+      </c>
+      <c r="J18">
+        <v>0.0005620214908777858</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>2.569221333333333</v>
+      </c>
+      <c r="N18">
+        <v>7.707663999999999</v>
+      </c>
+      <c r="O18">
+        <v>0.2587957846211489</v>
+      </c>
+      <c r="P18">
+        <v>0.3271621306314144</v>
+      </c>
+      <c r="Q18">
+        <v>3.724875073616</v>
+      </c>
+      <c r="R18">
+        <v>33.523875662544</v>
+      </c>
+      <c r="S18">
+        <v>0.000144240018203512</v>
+      </c>
+      <c r="T18">
+        <v>0.0001838721484162204</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>1.449807</v>
+      </c>
+      <c r="H19">
+        <v>4.349421</v>
+      </c>
+      <c r="I19">
+        <v>0.00055735072506944</v>
+      </c>
+      <c r="J19">
+        <v>0.0005620214908777858</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.5272676666666666</v>
+      </c>
+      <c r="N19">
+        <v>1.581803</v>
+      </c>
+      <c r="O19">
+        <v>0.05311128618230987</v>
+      </c>
+      <c r="P19">
+        <v>0.06714174874763133</v>
+      </c>
+      <c r="Q19">
+        <v>0.7644363540069999</v>
+      </c>
+      <c r="R19">
+        <v>6.879927186063</v>
+      </c>
+      <c r="S19">
+        <v>2.960161386308094E-05</v>
+      </c>
+      <c r="T19">
+        <v>3.773510573128547E-05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>1.449807</v>
+      </c>
+      <c r="H20">
+        <v>4.349421</v>
+      </c>
+      <c r="I20">
+        <v>0.00055735072506944</v>
+      </c>
+      <c r="J20">
+        <v>0.0005620214908777858</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.2497326666666667</v>
+      </c>
+      <c r="N20">
+        <v>0.749198</v>
+      </c>
+      <c r="O20">
+        <v>0.02515538874639522</v>
+      </c>
+      <c r="P20">
+        <v>0.03180071341262338</v>
+      </c>
+      <c r="Q20">
+        <v>0.3620641682620001</v>
+      </c>
+      <c r="R20">
+        <v>3.258577514358</v>
+      </c>
+      <c r="S20">
+        <v>1.402037415720701E-05</v>
+      </c>
+      <c r="T20">
+        <v>1.787268436313979E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>1.449807</v>
+      </c>
+      <c r="H21">
+        <v>4.349421</v>
+      </c>
+      <c r="I21">
+        <v>0.00055735072506944</v>
+      </c>
+      <c r="J21">
+        <v>0.0005620214908777858</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>6.2236465</v>
+      </c>
+      <c r="N21">
+        <v>12.447293</v>
+      </c>
+      <c r="O21">
+        <v>0.6269033571671654</v>
+      </c>
+      <c r="P21">
+        <v>0.5283420370261975</v>
+      </c>
+      <c r="Q21">
+        <v>9.023086261225501</v>
+      </c>
+      <c r="R21">
+        <v>54.13851756735301</v>
+      </c>
+      <c r="S21">
+        <v>0.0003494050406655858</v>
+      </c>
+      <c r="T21">
+        <v>0.0002969395793428698</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>64.854191</v>
+      </c>
+      <c r="H22">
+        <v>129.708382</v>
+      </c>
+      <c r="I22">
+        <v>0.02493196016962392</v>
+      </c>
+      <c r="J22">
+        <v>0.01676059830285119</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.357733</v>
+      </c>
+      <c r="N22">
+        <v>1.073199</v>
+      </c>
+      <c r="O22">
+        <v>0.03603418328298074</v>
+      </c>
+      <c r="P22">
+        <v>0.04555337018213343</v>
+      </c>
+      <c r="Q22">
+        <v>23.200484309003</v>
+      </c>
+      <c r="R22">
+        <v>139.202905854018</v>
+      </c>
+      <c r="S22">
+        <v>0.0008984028223562038</v>
+      </c>
+      <c r="T22">
+        <v>0.0007635017389638177</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>64.854191</v>
+      </c>
+      <c r="H23">
+        <v>129.708382</v>
+      </c>
+      <c r="I23">
+        <v>0.02493196016962392</v>
+      </c>
+      <c r="J23">
+        <v>0.01676059830285119</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>2.569221333333333</v>
+      </c>
+      <c r="N23">
+        <v>7.707663999999999</v>
+      </c>
+      <c r="O23">
+        <v>0.2587957846211489</v>
+      </c>
+      <c r="P23">
+        <v>0.3271621306314144</v>
+      </c>
+      <c r="Q23">
+        <v>166.6247710732746</v>
+      </c>
+      <c r="R23">
+        <v>999.748626439648</v>
+      </c>
+      <c r="S23">
+        <v>0.006452286194241055</v>
+      </c>
+      <c r="T23">
+        <v>0.005483433051418064</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
         <v>22</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>61.49820118108</v>
-      </c>
-      <c r="H16">
-        <v>61.49820118108</v>
-      </c>
-      <c r="I16">
-        <v>0.02585494916645983</v>
-      </c>
-      <c r="J16">
-        <v>0.02585494916645983</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>6.19067694037413</v>
-      </c>
-      <c r="N16">
-        <v>6.19067694037413</v>
-      </c>
-      <c r="O16">
-        <v>0.6598391759427661</v>
-      </c>
-      <c r="P16">
-        <v>0.6598391759427661</v>
-      </c>
-      <c r="Q16">
-        <v>380.7154959262011</v>
-      </c>
-      <c r="R16">
-        <v>380.7154959262011</v>
-      </c>
-      <c r="S16">
-        <v>0.01706010835203896</v>
-      </c>
-      <c r="T16">
-        <v>0.01706010835203896</v>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>64.854191</v>
+      </c>
+      <c r="H24">
+        <v>129.708382</v>
+      </c>
+      <c r="I24">
+        <v>0.02493196016962392</v>
+      </c>
+      <c r="J24">
+        <v>0.01676059830285119</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.5272676666666666</v>
+      </c>
+      <c r="N24">
+        <v>1.581803</v>
+      </c>
+      <c r="O24">
+        <v>0.05311128618230987</v>
+      </c>
+      <c r="P24">
+        <v>0.06714174874763133</v>
+      </c>
+      <c r="Q24">
+        <v>34.19551796212433</v>
+      </c>
+      <c r="R24">
+        <v>205.173107772746</v>
+      </c>
+      <c r="S24">
+        <v>0.001324168471654847</v>
+      </c>
+      <c r="T24">
+        <v>0.001125335880110011</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>64.854191</v>
+      </c>
+      <c r="H25">
+        <v>129.708382</v>
+      </c>
+      <c r="I25">
+        <v>0.02493196016962392</v>
+      </c>
+      <c r="J25">
+        <v>0.01676059830285119</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.2497326666666667</v>
+      </c>
+      <c r="N25">
+        <v>0.749198</v>
+      </c>
+      <c r="O25">
+        <v>0.02515538874639522</v>
+      </c>
+      <c r="P25">
+        <v>0.03180071341262338</v>
+      </c>
+      <c r="Q25">
+        <v>16.19621006293934</v>
+      </c>
+      <c r="R25">
+        <v>97.177260377636</v>
+      </c>
+      <c r="S25">
+        <v>0.0006271731502765314</v>
+      </c>
+      <c r="T25">
+        <v>0.0005329989832530726</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>64.854191</v>
+      </c>
+      <c r="H26">
+        <v>129.708382</v>
+      </c>
+      <c r="I26">
+        <v>0.02493196016962392</v>
+      </c>
+      <c r="J26">
+        <v>0.01676059830285119</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>6.2236465</v>
+      </c>
+      <c r="N26">
+        <v>12.447293</v>
+      </c>
+      <c r="O26">
+        <v>0.6269033571671654</v>
+      </c>
+      <c r="P26">
+        <v>0.5283420370261975</v>
+      </c>
+      <c r="Q26">
+        <v>403.6295588274815</v>
+      </c>
+      <c r="R26">
+        <v>1614.518235309926</v>
+      </c>
+      <c r="S26">
+        <v>0.01562992953109528</v>
+      </c>
+      <c r="T26">
+        <v>0.008855328649106228</v>
       </c>
     </row>
   </sheetData>
